--- a/output/Resolute_Bay/k_2/clusters_data.xlsx
+++ b/output/Resolute_Bay/k_2/clusters_data.xlsx
@@ -20,18 +20,81 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -50,73 +113,10 @@
     <t>112</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>106</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -457,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -517,63 +517,63 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/output/Resolute_Bay/k_2/clusters_data.xlsx
+++ b/output/Resolute_Bay/k_2/clusters_data.xlsx
@@ -20,6 +20,51 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
@@ -44,9 +89,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -59,21 +101,12 @@
     <t>93</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>192</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -83,40 +116,7 @@
     <t>74</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
 </sst>
 </file>
@@ -457,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -517,63 +517,63 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>33</v>
       </c>
     </row>
